--- a/data/trans_dic/P2C_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Provincia-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,37%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,6%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,78%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,14%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>28,95; 40,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,29; 51,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>31,6; 44,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>3,63; 8,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>36,35; 49,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,79; 62,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>36,0; 47,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>6,1; 11,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>34,88; 43,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,36; 54,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>35,92; 44,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>5,54; 9,04</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,75%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,43%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,21%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>19,26; 26,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>40,44; 49,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>22,71; 30,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>7,78; 14,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>26,92; 35,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>45,99; 55,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>30,37; 38,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>16,62; 23,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>24,28; 29,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>44,55; 50,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>27,59; 33,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>13,29; 17,53</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,93%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,67%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>28,6; 38,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>38,58; 49,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>21,51; 31,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>8,89; 16,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>30,71; 41,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>45,07; 56,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>25,45; 35,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>10,62; 17,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>31,06; 38,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>44,06; 51,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>25,18; 31,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>10,38; 14,8</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,77%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,85%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,14%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>23,84; 33,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>44,22; 55,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>25,62; 35,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>10,6; 20,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>33,33; 43,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>50,88; 60,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>34,85; 45,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>7,44; 17,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>30,61; 37,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>49,12; 56,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>31,4; 38,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>10,51; 17,47</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,58%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,2%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,9%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,97%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>18,03; 30,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>40,89; 55,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>35,42; 49,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>7,16; 15,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>24,52; 37,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>49,44; 63,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>40,58; 53,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>4,84; 12,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>22,65; 31,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>47,23; 57,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>40,22; 49,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>6,51; 12,57</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,18%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,61%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>29,63; 40,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>39,02; 51,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>24,09; 34,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>14,23; 22,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>24,4; 35,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>45,29; 57,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>27,9; 39,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>19,82; 27,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>28,16; 36,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>43,82; 52,49</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>27,56; 35,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>17,7; 23,53</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,17%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,45%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,61%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,11%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,49%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,32%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>25,28; 32,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>40,53; 48,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>23,06; 30,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,58; 7,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>35,17; 43,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>44,39; 52,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>32,83; 40,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,78; 66,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>31,61; 36,81</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>43,59; 49,23</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>29,21; 34,18</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,96; 48,56</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,41%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,09%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,8%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,69%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>25,39; 32,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>38,14; 45,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>32,55; 39,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>6,93; 23,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>27,74; 34,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>46,86; 54,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>41,78; 48,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>28,04; 33,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>27,35; 32,16</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>43,72; 48,66</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>38,46; 43,21</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>14,01; 27,31</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,75%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,82%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>27,69; 30,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>43,01; 46,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,68; 32,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,17; 13,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>32,84; 36,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>49,9; 53,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>37,04; 40,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>16,36; 34,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>30,74; 33,06</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>47,08; 49,53</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>33,89; 36,32</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>13,87; 24,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2C_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,95; 40,42</t>
+          <t>29,15; 40,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,29; 51,15</t>
+          <t>39,09; 51,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,6; 44,09</t>
+          <t>32,53; 44,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,74</t>
+          <t>3,62; 8,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,35; 49,21</t>
+          <t>36,79; 49,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,79; 62,16</t>
+          <t>50,14; 62,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,0; 47,43</t>
+          <t>35,51; 47,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,04</t>
+          <t>6,36; 11,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,88; 43,28</t>
+          <t>34,2; 43,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>46,36; 54,73</t>
+          <t>46,39; 55,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35,92; 44,31</t>
+          <t>35,41; 44,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,04</t>
+          <t>5,55; 9,04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,26; 26,93</t>
+          <t>19,4; 27,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,44; 49,34</t>
+          <t>40,89; 49,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,71; 30,83</t>
+          <t>22,9; 30,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 14,37</t>
+          <t>7,98; 14,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,92; 35,09</t>
+          <t>26,87; 35,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,99; 55,16</t>
+          <t>45,75; 54,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,37; 38,29</t>
+          <t>29,59; 38,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,62; 23,09</t>
+          <t>16,55; 22,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,28; 29,99</t>
+          <t>24,23; 29,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,55; 50,71</t>
+          <t>44,73; 51,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,59; 33,52</t>
+          <t>27,49; 33,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,29; 17,53</t>
+          <t>12,96; 17,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,6; 38,84</t>
+          <t>28,77; 39,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,58; 49,76</t>
+          <t>39,07; 50,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,51; 31,01</t>
+          <t>21,99; 31,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,89; 16,3</t>
+          <t>8,92; 16,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,71; 41,03</t>
+          <t>30,75; 41,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>45,07; 56,93</t>
+          <t>45,73; 56,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,45; 35,15</t>
+          <t>25,43; 35,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,62; 17,0</t>
+          <t>10,56; 16,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,06; 38,8</t>
+          <t>31,15; 38,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>44,06; 51,83</t>
+          <t>44,08; 52,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,18; 31,91</t>
+          <t>24,92; 31,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,38; 14,8</t>
+          <t>10,4; 15,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,84; 33,96</t>
+          <t>24,32; 33,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,22; 55,39</t>
+          <t>44,06; 55,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,62; 35,16</t>
+          <t>25,26; 34,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,6; 20,8</t>
+          <t>11,16; 20,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,33; 43,31</t>
+          <t>33,38; 43,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,88; 60,71</t>
+          <t>50,74; 60,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,85; 45,28</t>
+          <t>34,66; 44,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 17,27</t>
+          <t>8,04; 17,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,61; 37,48</t>
+          <t>30,1; 37,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>49,12; 56,54</t>
+          <t>49,25; 56,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31,4; 38,76</t>
+          <t>31,39; 38,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,51; 17,47</t>
+          <t>10,24; 17,52</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,03; 30,07</t>
+          <t>18,38; 29,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,89; 55,27</t>
+          <t>40,53; 54,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,42; 49,23</t>
+          <t>35,71; 49,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 15,05</t>
+          <t>7,65; 15,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,52; 37,14</t>
+          <t>24,61; 37,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,44; 63,48</t>
+          <t>49,54; 63,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>40,58; 53,72</t>
+          <t>40,77; 53,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 12,8</t>
+          <t>4,66; 13,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,65; 31,51</t>
+          <t>22,65; 30,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47,23; 57,17</t>
+          <t>47,2; 56,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,22; 49,64</t>
+          <t>39,98; 49,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,51; 12,57</t>
+          <t>6,77; 12,37</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,63; 40,95</t>
+          <t>29,54; 40,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,02; 51,15</t>
+          <t>39,31; 51,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,09; 34,87</t>
+          <t>24,16; 34,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,23; 22,37</t>
+          <t>13,91; 21,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,4; 35,07</t>
+          <t>24,38; 35,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,29; 57,66</t>
+          <t>45,45; 57,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,9; 39,17</t>
+          <t>27,5; 39,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,82; 27,95</t>
+          <t>19,96; 28,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,16; 36,32</t>
+          <t>28,6; 36,28</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>43,82; 52,49</t>
+          <t>43,79; 52,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27,56; 35,89</t>
+          <t>27,71; 35,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,7; 23,53</t>
+          <t>17,64; 23,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25,28; 32,6</t>
+          <t>25,1; 32,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40,53; 48,78</t>
+          <t>40,16; 48,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,06; 30,43</t>
+          <t>23,13; 29,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,7</t>
+          <t>3,67; 7,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,17; 43,12</t>
+          <t>35,4; 43,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,39; 52,24</t>
+          <t>44,82; 52,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>32,83; 40,74</t>
+          <t>32,65; 40,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,78; 66,44</t>
+          <t>6,7; 59,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31,61; 36,81</t>
+          <t>31,3; 36,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>43,59; 49,23</t>
+          <t>43,6; 49,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29,21; 34,18</t>
+          <t>29,12; 34,38</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,96; 48,56</t>
+          <t>5,84; 50,5</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>25,39; 32,14</t>
+          <t>25,62; 32,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>38,14; 45,44</t>
+          <t>37,6; 45,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,55; 39,17</t>
+          <t>32,82; 39,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,93; 23,11</t>
+          <t>7,69; 23,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,74; 34,36</t>
+          <t>27,51; 34,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>46,86; 54,26</t>
+          <t>46,78; 54,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>41,78; 48,87</t>
+          <t>41,69; 49,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,04; 33,81</t>
+          <t>28,05; 33,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27,35; 32,16</t>
+          <t>27,76; 32,44</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>43,72; 48,66</t>
+          <t>43,7; 48,67</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>38,46; 43,21</t>
+          <t>38,43; 43,4</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,01; 27,31</t>
+          <t>14,04; 27,33</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>27,69; 30,79</t>
+          <t>27,44; 30,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>43,01; 46,55</t>
+          <t>43,15; 46,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>29,68; 32,76</t>
+          <t>29,7; 32,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,17; 13,41</t>
+          <t>9,61; 13,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>32,84; 36,14</t>
+          <t>32,87; 36,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49,9; 53,26</t>
+          <t>49,93; 53,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>37,04; 40,37</t>
+          <t>37,04; 40,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,36; 34,87</t>
+          <t>16,39; 36,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>30,74; 33,06</t>
+          <t>30,68; 32,91</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>47,08; 49,53</t>
+          <t>46,82; 49,42</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>33,89; 36,32</t>
+          <t>33,91; 36,26</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13,87; 24,37</t>
+          <t>13,87; 26,0</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados y estos son no remunerados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>94824</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>133712</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>112326</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18206</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>112539</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>160761</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>119354</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24737</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>207363</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>294474</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>231680</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>42942</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>79576; 110679</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>115199; 152897</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>95573; 131423</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11264; 27009</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>95961; 129899</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>144025; 178097</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>102506; 136583</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18408; 33052</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>182557; 230082</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>269959; 321756</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>206260; 257009</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33369; 54319</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>113545</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>227060</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>134083</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>55849</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>155235</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>264438</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>178044</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>101314</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>268780</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>491497</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>312127</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>157163</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>95679; 133645</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>206692; 252418</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>115076; 154562</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>41358; 73201</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>135393; 176968</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>239624; 286962</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>154804; 201226</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>85227; 118212</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>241548; 298462</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>460355; 525519</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>281967; 341918</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>133958; 181262</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>108657</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>145073</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>84254</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>37994</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>119862</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>174149</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>102034</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46262</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>228519</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>319223</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>186289</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>84256</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>91737; 124870</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>126611; 164295</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>70068; 99427</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28192; 50852</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>103131; 139576</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>155938; 193429</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>85535; 120673</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>36865; 57545</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>203789; 253871</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>293162; 345911</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>163203; 207930</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>69159; 101166</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>104164</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>186183</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>111498</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>48647</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>142425</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>216993</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>153850</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>62782</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>246589</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>403176</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>265348</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>111429</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>87212; 121044</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>164778; 207626</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>93436; 128782</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>34884; 65038</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>123975; 160080</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>197348; 236317</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>134245; 172756</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>38242; 82394</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>219757; 270772</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>375733; 433769</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>237684; 290429</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>80730; 138130</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>47363</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>101352</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>90141</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19291</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>63216</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>124245</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>102832</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24348</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>110579</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>225597</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>192973</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>43639</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>37358; 60530</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>86184; 116506</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>75426; 103934</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13666; 28082</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>51106; 77131</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>108781; 139309</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>89122; 117467</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12069; 33867</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>93072; 127166</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>204000; 245994</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>171828; 212857</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>29638; 54128</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>95147</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>123141</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>76649</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>47693</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>81888</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>143793</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>90479</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>60864</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>177036</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>266935</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>167129</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>108557</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>79992; 110520</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>107709; 140478</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>63571; 91075</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>37496; 58646</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>67804; 98713</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>127279; 159666</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>75106; 106576</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>51318; 73212</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>157012; 199143</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>242599; 289716</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>148565; 189853</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>92927; 126094</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>177448</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>294599</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>173918</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>33209</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>249996</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>336140</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>252156</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>251460</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>427444</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>630739</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>426074</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>284668</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>154384; 200618</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>266196; 319709</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>151841; 196755</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>22923; 49619</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>225960; 276784</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>310965; 364289</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>225722; 276932</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>56886; 508663</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>392208; 460837</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>591434; 668134</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>392514; 463370</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>86112; 744103</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>214285</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>323465</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>279821</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>152045</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>241763</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>415321</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>374854</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>221525</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>456047</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>738786</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>654675</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>373570</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>190586; 240721</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>292917; 352488</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>255533; 308968</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>71405; 216387</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>215546; 266761</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>385408; 445002</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>344447; 406457</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>201294; 243346</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>424005; 495495</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>700446; 780080</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>616687; 696456</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>231179; 449981</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1444</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1707</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2055</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3151</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2327</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1428</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>955433</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1534588</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1062691</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>412934</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1166924</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1835841</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1373604</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>793292</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>2122357</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>3370428</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2436295</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1206225</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>899229; 1010203</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1478659; 1593946</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1007995; 1110714</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>332435; 462865</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1110807; 1218215</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1776561; 1901319</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1312864; 1434726</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>608615; 1348448</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>2042280; 2190236</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>3270192; 3452205</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2353086; 2516177</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>995109; 1864797</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>